--- a/data/COL3A1/PMID_15007000.xlsx
+++ b/data/COL3A1/PMID_15007000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z184215\Documents\H_schijf_Lex\Projecten\HPO_clustering_Peter\Scripts\c2s2-clin\data\COL3A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C127F314-0FA8-4643-AB84-7B6B39CDE322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFD87C-3D69-4DB4-8F7F-32376ADDF01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77344D2D-C32D-44A4-A7FD-74405DC7EBEF}"/>
   </bookViews>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9841E753-EDCF-4B47-B20A-54533CCF10AC}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
